--- a/W4/Excel/SWP391-OnlineShopping-Weekly Report - W4.xlsx
+++ b/W4/Excel/SWP391-OnlineShopping-Weekly Report - W4.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>7. Ai có khó khăn gì thì chia sẻ ngay với nhóm, với thầy</t>
+  </si>
+  <si>
+    <t>Sửa lại bản Architecture Design</t>
   </si>
 </sst>
 </file>
@@ -356,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,6 +407,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,7 +717,7 @@
   <dimension ref="A1:AL39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,12 +1005,18 @@
       <c r="AL20" s="20"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D21" s="21">
+        <v>44832</v>
+      </c>
       <c r="E21" s="20" t="s">
         <v>31</v>
       </c>

--- a/W4/Excel/SWP391-OnlineShopping-Weekly Report - W4.xlsx
+++ b/W4/Excel/SWP391-OnlineShopping-Weekly Report - W4.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>&lt;26/09/2022-02/10/2022&gt;</t>
-  </si>
-  <si>
-    <t>Báo cáo tiến độ làm việc nhóm trên Github (26/09/2022 - 02/10/2022)</t>
   </si>
   <si>
     <t>Bắt đầu từ tuần thứ 5 (03/10/2022-09/10/2022)</t>
@@ -244,6 +241,15 @@
   </si>
   <si>
     <t>Sửa lại bản Architecture Design</t>
+  </si>
+  <si>
+    <t>05/10/2022 phải hoàn thành</t>
+  </si>
+  <si>
+    <t>Hoàn thành nốt các màn hình vẫn chưa code xong trong iteration 2</t>
+  </si>
+  <si>
+    <t>Báo cáo tiến độ làm việc nhóm trên Github (26/09/2022 - 03/10/2022)</t>
   </si>
 </sst>
 </file>
@@ -425,6 +431,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279680</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>113457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="449580" y="7894320"/>
+          <a:ext cx="11107700" cy="7611537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>117733</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>140029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="449580" y="15575280"/>
+          <a:ext cx="10945753" cy="6906589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -717,7 +804,7 @@
   <dimension ref="A1:AL39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,7 +867,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -788,7 +875,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>37</v>
@@ -806,7 +893,7 @@
         <v>36</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -820,7 +907,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -854,13 +941,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>24</v>
@@ -910,7 +997,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="E18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
@@ -1009,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>37</v>
@@ -1055,12 +1142,18 @@
       <c r="AL21" s="20"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E22" s="20" t="s">
         <v>32</v>
       </c>
@@ -1204,11 +1297,11 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
@@ -1274,7 +1367,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1285,6 +1378,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/W4/Excel/SWP391-OnlineShopping-Weekly Report - W4.xlsx
+++ b/W4/Excel/SWP391-OnlineShopping-Weekly Report - W4.xlsx
@@ -804,7 +804,7 @@
   <dimension ref="A1:AL39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,7 +864,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>46</v>
